--- a/computer_pg_script.xlsx
+++ b/computer_pg_script.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\SQL_TASKS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python39\SQL_TASKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -128,10 +128,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -246,7 +246,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -277,7 +277,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -380,6 +380,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B2:D19" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B2:D19"/>
+  <sortState ref="B3:D19">
+    <sortCondition ref="B3"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="maker" dataDxfId="20"/>
     <tableColumn id="2" name="model" dataDxfId="19"/>
@@ -687,7 +690,7 @@
   <dimension ref="B1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,10 +790,10 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>1121</v>
+        <v>1232</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -843,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -896,10 +899,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>1233</v>
+        <v>1276</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
@@ -946,13 +949,13 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>1260</v>
+        <v>1298</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
@@ -1002,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>1276</v>
+        <v>1401</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -1052,10 +1055,10 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>1288</v>
+        <v>1408</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -1108,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>1298</v>
+        <v>1752</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -1144,13 +1147,13 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>1321</v>
+        <v>1121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2">
         <v>8</v>
@@ -1183,13 +1186,13 @@
     </row>
     <row r="11" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>1401</v>
+        <v>1750</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2">
         <v>9</v>
@@ -1224,13 +1227,13 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>1408</v>
+        <v>1321</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
@@ -1276,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1">
-        <v>1433</v>
+        <v>1288</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -1322,10 +1325,10 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -1371,13 +1374,13 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>1750</v>
+        <v>1260</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1406,13 +1409,13 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>1752</v>
+        <v>1434</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N16" s="5">
         <v>4</v>
